--- a/data/MONTE_CARLO_ASSUMPTIONS.xlsx
+++ b/data/MONTE_CARLO_ASSUMPTIONS.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gbisschoff\Desktop\Playground\Z-model\examples\01_generate_scenarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geyerbisschoff\PythonProjects\Z-model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1274960B-AF2A-4683-A448-2E5520CB5B2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="1275" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
     <sheet name="DICTIONARY" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -138,7 +147,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -307,11 +316,17 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>733426</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="Rectangle 1"/>
+            <xdr:cNvPr id="2" name="Rectangle 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -380,6 +395,7 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -392,7 +408,7 @@
                           <a:sysClr val="windowText" lastClr="000000"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -404,7 +420,7 @@
                           <a:sysClr val="windowText" lastClr="000000"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -416,7 +432,7 @@
                           <a:sysClr val="windowText" lastClr="000000"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -428,7 +444,7 @@
                           <a:sysClr val="windowText" lastClr="000000"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -442,7 +458,7 @@
                               <a:sysClr val="windowText" lastClr="000000"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -455,7 +471,7 @@
                               <a:sysClr val="windowText" lastClr="000000"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -467,7 +483,7 @@
                               <a:sysClr val="windowText" lastClr="000000"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -479,7 +495,7 @@
                               <a:sysClr val="windowText" lastClr="000000"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -493,7 +509,7 @@
                           <a:sysClr val="windowText" lastClr="000000"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -505,7 +521,7 @@
                           <a:sysClr val="windowText" lastClr="000000"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -517,7 +533,7 @@
                           <a:sysClr val="windowText" lastClr="000000"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -529,7 +545,7 @@
                           <a:sysClr val="windowText" lastClr="000000"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -541,7 +557,7 @@
                           <a:sysClr val="windowText" lastClr="000000"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -553,7 +569,7 @@
                           <a:sysClr val="windowText" lastClr="000000"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -565,7 +581,7 @@
                           <a:sysClr val="windowText" lastClr="000000"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -577,7 +593,7 @@
                           <a:sysClr val="windowText" lastClr="000000"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -791,7 +807,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="Rectangle 1"/>
@@ -1308,11 +1324,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1399,7 +1415,7 @@
         <v>2.41E-2</v>
       </c>
       <c r="K2" s="14">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="L2" s="14" t="s">
         <v>13</v>
@@ -1421,14 +1437,13 @@
         <v>120</v>
       </c>
       <c r="E3" s="14">
-        <f>G3</f>
-        <v>0.25</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F3" s="14">
         <v>0</v>
       </c>
       <c r="G3" s="14">
-        <v>0.25</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="H3" s="14">
         <v>1</v>
@@ -1440,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="14">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="L3" s="14"/>
     </row>
@@ -1478,7 +1493,7 @@
         <v>0.42899999999999999</v>
       </c>
       <c r="K4" s="14">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="L4" s="14"/>
     </row>
@@ -1516,7 +1531,7 @@
         <v>0.42899999999999999</v>
       </c>
       <c r="K5" s="14">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="L5" s="14"/>
     </row>
@@ -1527,10 +1542,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -1686,6 +1701,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/MONTE_CARLO_ASSUMPTIONS.xlsx
+++ b/data/MONTE_CARLO_ASSUMPTIONS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geyerbisschoff\PythonProjects\Z-model\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\users\geyerbisschoff\pythonprojects\z-model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1274960B-AF2A-4683-A448-2E5520CB5B2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A65336-EFFB-4816-9F4F-85CC9D174766}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-40212" yWindow="-6528" windowWidth="40320" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -1328,7 +1328,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="K2" sqref="K2:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1415,7 +1415,7 @@
         <v>2.41E-2</v>
       </c>
       <c r="K2" s="14">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="L2" s="14" t="s">
         <v>13</v>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="14">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="L3" s="14"/>
     </row>
@@ -1493,7 +1493,7 @@
         <v>0.42899999999999999</v>
       </c>
       <c r="K4" s="14">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="L4" s="14"/>
     </row>
@@ -1531,7 +1531,7 @@
         <v>0.42899999999999999</v>
       </c>
       <c r="K5" s="14">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="L5" s="14"/>
     </row>
